--- a/excel/finished/原供料/1.供料车间集控中心交接班记录.xlsx
+++ b/excel/finished/原供料/1.供料车间集控中心交接班记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,13 +118,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,18 +161,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -188,14 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -204,23 +250,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,23 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,15 +288,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,29 +310,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -333,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +589,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +605,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,26 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,16 +668,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -697,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,138 +702,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -858,9 +854,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -876,11 +869,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -899,12 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,28 +1244,28 @@
   <sheetPr/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="28.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="26.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="25.8" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="6" t="str">
         <f>"日期："&amp;IF(_ygl_week_all!A2="","",_ygl_week_all!A2)</f>
         <v>日期：</v>
       </c>
@@ -1319,63 +1303,63 @@
         <f>IF(_ygl_week_all!F2="","",_ygl_week_all!F2)</f>
         <v/>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="C4" s="5" t="str">
         <f>IF(_ygl_week_all!G2="","",_ygl_week_all!G2)</f>
         <v/>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="13" t="str">
         <f>IF(_ygl_week_all!E3="","",_ygl_week_all!E3)</f>
         <v/>
       </c>
-      <c r="B5" s="15" t="str">
+      <c r="B5" s="14" t="str">
         <f>IF(_ygl_week_all!F3="","",_ygl_week_all!F3)</f>
         <v/>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="15" t="str">
         <f>IF(_ygl_week_all!G3="","",_ygl_week_all!G3)</f>
         <v/>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18" t="str">
+      <c r="A6" s="17" t="str">
         <f>IF(_ygl_week_all!E4="","",_ygl_week_all!E4)</f>
         <v/>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="18" t="str">
         <f>IF(_ygl_week_all!F4="","",_ygl_week_all!F4)</f>
         <v/>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="19" t="str">
         <f>IF(_ygl_week_all!G4="","",_ygl_week_all!G4)</f>
         <v/>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="str">
+      <c r="A7" s="13" t="str">
         <f>IF(_ygl_week_all!E5="","",_ygl_week_all!E5)</f>
         <v/>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="14" t="str">
         <f>IF(_ygl_week_all!F5="","",_ygl_week_all!F5)</f>
         <v/>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="15" t="str">
         <f>IF(_ygl_week_all!G5="","",_ygl_week_all!G5)</f>
         <v/>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="17" t="str">
         <f>IF(_ygl_week_all!E6="","",_ygl_week_all!E6)</f>
         <v/>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="18" t="str">
         <f>IF(_ygl_week_all!F6="","",_ygl_week_all!F6)</f>
         <v/>
       </c>
@@ -1386,26 +1370,26 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14" t="str">
+      <c r="A9" s="13" t="str">
         <f>IF(_ygl_week_all!E7="","",_ygl_week_all!E7)</f>
         <v/>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="14" t="str">
         <f>IF(_ygl_week_all!F7="","",_ygl_week_all!F7)</f>
         <v/>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="15" t="str">
         <f>IF(_ygl_week_all!G7="","",_ygl_week_all!G7)</f>
         <v/>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="18" t="str">
+      <c r="A10" s="17" t="str">
         <f>IF(_ygl_week_all!E8="","",_ygl_week_all!E8)</f>
         <v/>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="18" t="str">
         <f>IF(_ygl_week_all!F8="","",_ygl_week_all!F8)</f>
         <v/>
       </c>
@@ -1416,26 +1400,26 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="13" t="str">
         <f>IF(_ygl_week_all!E9="","",_ygl_week_all!E9)</f>
         <v/>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="14" t="str">
         <f>IF(_ygl_week_all!F9="","",_ygl_week_all!F9)</f>
         <v/>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="15" t="str">
         <f>IF(_ygl_week_all!G9="","",_ygl_week_all!G9)</f>
         <v/>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="18" t="str">
+      <c r="A12" s="17" t="str">
         <f>IF(_ygl_week_all!E10="","",_ygl_week_all!E10)</f>
         <v/>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="18" t="str">
         <f>IF(_ygl_week_all!F10="","",_ygl_week_all!F10)</f>
         <v/>
       </c>
@@ -1446,26 +1430,26 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="13" t="str">
         <f>IF(_ygl_week_all!E11="","",_ygl_week_all!E11)</f>
         <v/>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="14" t="str">
         <f>IF(_ygl_week_all!F11="","",_ygl_week_all!F11)</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="15" t="str">
         <f>IF(_ygl_week_all!G11="","",_ygl_week_all!G11)</f>
         <v/>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="18" t="str">
+      <c r="A14" s="17" t="str">
         <f>IF(_ygl_week_all!E12="","",_ygl_week_all!E12)</f>
         <v/>
       </c>
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="18" t="str">
         <f>IF(_ygl_week_all!F12="","",_ygl_week_all!F12)</f>
         <v/>
       </c>
@@ -1476,7 +1460,7 @@
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="6" t="str">
         <f>"日期："&amp;IF(_ygl_week_all!A13="","",_ygl_week_all!A13)</f>
         <v>日期：</v>
       </c>
@@ -1506,56 +1490,56 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14" t="str">
+      <c r="A17" s="13" t="str">
         <f>IF(_ygl_week_all!E14="","",_ygl_week_all!E14)</f>
         <v/>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="14" t="str">
         <f>IF(_ygl_week_all!F14="","",_ygl_week_all!F14)</f>
         <v/>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="15" t="str">
         <f>IF(_ygl_week_all!G14="","",_ygl_week_all!G14)</f>
         <v/>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18" t="str">
+      <c r="A18" s="17" t="str">
         <f>IF(_ygl_week_all!E15="","",_ygl_week_all!E15)</f>
         <v/>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="18" t="str">
         <f>IF(_ygl_week_all!F15="","",_ygl_week_all!F15)</f>
         <v/>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="19" t="str">
         <f>IF(_ygl_week_all!G15="","",_ygl_week_all!G15)</f>
         <v/>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14" t="str">
+      <c r="A19" s="13" t="str">
         <f>IF(_ygl_week_all!E16="","",_ygl_week_all!E16)</f>
         <v/>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="14" t="str">
         <f>IF(_ygl_week_all!F16="","",_ygl_week_all!F16)</f>
         <v/>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF(_ygl_week_all!G16="","",_ygl_week_all!G16)</f>
         <v/>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18" t="str">
+      <c r="A20" s="17" t="str">
         <f>IF(_ygl_week_all!E17="","",_ygl_week_all!E17)</f>
         <v/>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="18" t="str">
         <f>IF(_ygl_week_all!F17="","",_ygl_week_all!F17)</f>
         <v/>
       </c>
@@ -1566,26 +1550,26 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14" t="str">
+      <c r="A21" s="13" t="str">
         <f>IF(_ygl_week_all!E18="","",_ygl_week_all!E18)</f>
         <v/>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="14" t="str">
         <f>IF(_ygl_week_all!F18="","",_ygl_week_all!F18)</f>
         <v/>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="15" t="str">
         <f>IF(_ygl_week_all!G18="","",_ygl_week_all!G18)</f>
         <v/>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18" t="str">
+      <c r="A22" s="17" t="str">
         <f>IF(_ygl_week_all!E19="","",_ygl_week_all!E19)</f>
         <v/>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="18" t="str">
         <f>IF(_ygl_week_all!F19="","",_ygl_week_all!F19)</f>
         <v/>
       </c>
@@ -1596,26 +1580,26 @@
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14" t="str">
+      <c r="A23" s="13" t="str">
         <f>IF(_ygl_week_all!E20="","",_ygl_week_all!E20)</f>
         <v/>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="14" t="str">
         <f>IF(_ygl_week_all!F20="","",_ygl_week_all!F20)</f>
         <v/>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="15" t="str">
         <f>IF(_ygl_week_all!G20="","",_ygl_week_all!G20)</f>
         <v/>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18" t="str">
+      <c r="A24" s="17" t="str">
         <f>IF(_ygl_week_all!E21="","",_ygl_week_all!E21)</f>
         <v/>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="18" t="str">
         <f>IF(_ygl_week_all!F21="","",_ygl_week_all!F21)</f>
         <v/>
       </c>
@@ -1626,26 +1610,26 @@
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14" t="str">
+      <c r="A25" s="13" t="str">
         <f>IF(_ygl_week_all!E22="","",_ygl_week_all!E22)</f>
         <v/>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="14" t="str">
         <f>IF(_ygl_week_all!F22="","",_ygl_week_all!F22)</f>
         <v/>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="15" t="str">
         <f>IF(_ygl_week_all!G22="","",_ygl_week_all!G22)</f>
         <v/>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18" t="str">
+      <c r="A26" s="17" t="str">
         <f>IF(_ygl_week_all!E23="","",_ygl_week_all!E23)</f>
         <v/>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="18" t="str">
         <f>IF(_ygl_week_all!F23="","",_ygl_week_all!F23)</f>
         <v/>
       </c>
@@ -1656,7 +1640,7 @@
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5" t="str">
+      <c r="A27" s="6" t="str">
         <f>"日期："&amp;IF(_ygl_week_all!A24="","",_ygl_week_all!A24)</f>
         <v>日期：</v>
       </c>
@@ -1686,26 +1670,26 @@
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14" t="str">
+      <c r="A29" s="13" t="str">
         <f>IF(_ygl_week_all!E25="","",_ygl_week_all!E25)</f>
         <v/>
       </c>
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="14" t="str">
         <f>IF(_ygl_week_all!F25="","",_ygl_week_all!F25)</f>
         <v/>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="15" t="str">
         <f>IF(_ygl_week_all!G25="","",_ygl_week_all!G25)</f>
         <v/>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18" t="str">
+      <c r="A30" s="17" t="str">
         <f>IF(_ygl_week_all!E26="","",_ygl_week_all!E26)</f>
         <v/>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B30" s="18" t="str">
         <f>IF(_ygl_week_all!F26="","",_ygl_week_all!F26)</f>
         <v/>
       </c>
@@ -1716,26 +1700,26 @@
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14" t="str">
+      <c r="A31" s="13" t="str">
         <f>IF(_ygl_week_all!E27="","",_ygl_week_all!E27)</f>
         <v/>
       </c>
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="14" t="str">
         <f>IF(_ygl_week_all!F27="","",_ygl_week_all!F27)</f>
         <v/>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="15" t="str">
         <f>IF(_ygl_week_all!G27="","",_ygl_week_all!G27)</f>
         <v/>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18" t="str">
+      <c r="A32" s="17" t="str">
         <f>IF(_ygl_week_all!E28="","",_ygl_week_all!E28)</f>
         <v/>
       </c>
-      <c r="B32" s="19" t="str">
+      <c r="B32" s="18" t="str">
         <f>IF(_ygl_week_all!F28="","",_ygl_week_all!F28)</f>
         <v/>
       </c>
@@ -1746,26 +1730,26 @@
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="14" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(_ygl_week_all!E29="","",_ygl_week_all!E29)</f>
         <v/>
       </c>
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="14" t="str">
         <f>IF(_ygl_week_all!F29="","",_ygl_week_all!F29)</f>
         <v/>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="15" t="str">
         <f>IF(_ygl_week_all!G29="","",_ygl_week_all!G29)</f>
         <v/>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18" t="str">
+      <c r="A34" s="17" t="str">
         <f>IF(_ygl_week_all!E30="","",_ygl_week_all!E30)</f>
         <v/>
       </c>
-      <c r="B34" s="19" t="str">
+      <c r="B34" s="18" t="str">
         <f>IF(_ygl_week_all!F30="","",_ygl_week_all!F30)</f>
         <v/>
       </c>
@@ -1776,26 +1760,26 @@
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="14" t="str">
+      <c r="A35" s="13" t="str">
         <f>IF(_ygl_week_all!E31="","",_ygl_week_all!E31)</f>
         <v/>
       </c>
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="14" t="str">
         <f>IF(_ygl_week_all!F31="","",_ygl_week_all!F31)</f>
         <v/>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="15" t="str">
         <f>IF(_ygl_week_all!G31="","",_ygl_week_all!G31)</f>
         <v/>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18" t="str">
+      <c r="A36" s="17" t="str">
         <f>IF(_ygl_week_all!E32="","",_ygl_week_all!E32)</f>
         <v/>
       </c>
-      <c r="B36" s="19" t="str">
+      <c r="B36" s="18" t="str">
         <f>IF(_ygl_week_all!F32="","",_ygl_week_all!F32)</f>
         <v/>
       </c>
@@ -1806,26 +1790,26 @@
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="14" t="str">
+      <c r="A37" s="13" t="str">
         <f>IF(_ygl_week_all!E33="","",_ygl_week_all!E33)</f>
         <v/>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="14" t="str">
         <f>IF(_ygl_week_all!F33="","",_ygl_week_all!F33)</f>
         <v/>
       </c>
-      <c r="C37" s="16" t="str">
+      <c r="C37" s="15" t="str">
         <f>IF(_ygl_week_all!G33="","",_ygl_week_all!G33)</f>
         <v/>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18" t="str">
+      <c r="A38" s="17" t="str">
         <f>IF(_ygl_week_all!E34="","",_ygl_week_all!E34)</f>
         <v/>
       </c>
-      <c r="B38" s="19" t="str">
+      <c r="B38" s="18" t="str">
         <f>IF(_ygl_week_all!F34="","",_ygl_week_all!F34)</f>
         <v/>
       </c>
@@ -1836,7 +1820,7 @@
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5" t="str">
+      <c r="A39" s="6" t="str">
         <f>"日期："&amp;IF(_ygl_week_all!A35="","",_ygl_week_all!A35)</f>
         <v>日期：</v>
       </c>
@@ -1866,26 +1850,26 @@
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="14" t="str">
+      <c r="A41" s="13" t="str">
         <f>IF(_ygl_week_all!E36="","",_ygl_week_all!E36)</f>
         <v/>
       </c>
-      <c r="B41" s="15" t="str">
+      <c r="B41" s="14" t="str">
         <f>IF(_ygl_week_all!F36="","",_ygl_week_all!F36)</f>
         <v/>
       </c>
-      <c r="C41" s="16" t="str">
+      <c r="C41" s="15" t="str">
         <f>IF(_ygl_week_all!G36="","",_ygl_week_all!G36)</f>
         <v/>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="18" t="str">
+      <c r="A42" s="17" t="str">
         <f>IF(_ygl_week_all!E37="","",_ygl_week_all!E37)</f>
         <v/>
       </c>
-      <c r="B42" s="19" t="str">
+      <c r="B42" s="18" t="str">
         <f>IF(_ygl_week_all!F37="","",_ygl_week_all!F37)</f>
         <v/>
       </c>
@@ -1896,26 +1880,26 @@
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="14" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(_ygl_week_all!E38="","",_ygl_week_all!E38)</f>
         <v/>
       </c>
-      <c r="B43" s="15" t="str">
+      <c r="B43" s="14" t="str">
         <f>IF(_ygl_week_all!F38="","",_ygl_week_all!F38)</f>
         <v/>
       </c>
-      <c r="C43" s="16" t="str">
+      <c r="C43" s="15" t="str">
         <f>IF(_ygl_week_all!G38="","",_ygl_week_all!G38)</f>
         <v/>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="18" t="str">
+      <c r="A44" s="17" t="str">
         <f>IF(_ygl_week_all!E39="","",_ygl_week_all!E39)</f>
         <v/>
       </c>
-      <c r="B44" s="19" t="str">
+      <c r="B44" s="18" t="str">
         <f>IF(_ygl_week_all!F39="","",_ygl_week_all!F39)</f>
         <v/>
       </c>
@@ -1926,26 +1910,26 @@
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="14" t="str">
+      <c r="A45" s="13" t="str">
         <f>IF(_ygl_week_all!E40="","",_ygl_week_all!E40)</f>
         <v/>
       </c>
-      <c r="B45" s="15" t="str">
+      <c r="B45" s="14" t="str">
         <f>IF(_ygl_week_all!F40="","",_ygl_week_all!F40)</f>
         <v/>
       </c>
-      <c r="C45" s="16" t="str">
+      <c r="C45" s="15" t="str">
         <f>IF(_ygl_week_all!G40="","",_ygl_week_all!G40)</f>
         <v/>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="18" t="str">
+      <c r="A46" s="17" t="str">
         <f>IF(_ygl_week_all!E41="","",_ygl_week_all!E41)</f>
         <v/>
       </c>
-      <c r="B46" s="19" t="str">
+      <c r="B46" s="18" t="str">
         <f>IF(_ygl_week_all!F41="","",_ygl_week_all!F41)</f>
         <v/>
       </c>
@@ -1956,26 +1940,26 @@
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="14" t="str">
+      <c r="A47" s="13" t="str">
         <f>IF(_ygl_week_all!E42="","",_ygl_week_all!E42)</f>
         <v/>
       </c>
-      <c r="B47" s="15" t="str">
+      <c r="B47" s="14" t="str">
         <f>IF(_ygl_week_all!F42="","",_ygl_week_all!F42)</f>
         <v/>
       </c>
-      <c r="C47" s="16" t="str">
+      <c r="C47" s="15" t="str">
         <f>IF(_ygl_week_all!G42="","",_ygl_week_all!G42)</f>
         <v/>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18" t="str">
+      <c r="A48" s="17" t="str">
         <f>IF(_ygl_week_all!E43="","",_ygl_week_all!E43)</f>
         <v/>
       </c>
-      <c r="B48" s="19" t="str">
+      <c r="B48" s="18" t="str">
         <f>IF(_ygl_week_all!F43="","",_ygl_week_all!F43)</f>
         <v/>
       </c>
@@ -1986,26 +1970,26 @@
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="14" t="str">
+      <c r="A49" s="13" t="str">
         <f>IF(_ygl_week_all!E44="","",_ygl_week_all!E44)</f>
         <v/>
       </c>
-      <c r="B49" s="15" t="str">
+      <c r="B49" s="14" t="str">
         <f>IF(_ygl_week_all!F44="","",_ygl_week_all!F44)</f>
         <v/>
       </c>
-      <c r="C49" s="16" t="str">
+      <c r="C49" s="15" t="str">
         <f>IF(_ygl_week_all!G44="","",_ygl_week_all!G44)</f>
         <v/>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="18" t="str">
+      <c r="A50" s="17" t="str">
         <f>IF(_ygl_week_all!E45="","",_ygl_week_all!E45)</f>
         <v/>
       </c>
-      <c r="B50" s="19" t="str">
+      <c r="B50" s="18" t="str">
         <f>IF(_ygl_week_all!F45="","",_ygl_week_all!F45)</f>
         <v/>
       </c>
@@ -2016,7 +2000,7 @@
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5" t="str">
+      <c r="A51" s="6" t="str">
         <f>"日期："&amp;IF(_ygl_week_all!A46="","",_ygl_week_all!A46)</f>
         <v>日期：</v>
       </c>
@@ -2046,11 +2030,11 @@
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="18" t="str">
+      <c r="A53" s="17" t="str">
         <f>IF(_ygl_week_all!E47="","",_ygl_week_all!E47)</f>
         <v/>
       </c>
-      <c r="B53" s="19" t="str">
+      <c r="B53" s="18" t="str">
         <f>IF(_ygl_week_all!F47="","",_ygl_week_all!F47)</f>
         <v/>
       </c>
@@ -2061,11 +2045,11 @@
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="18" t="str">
+      <c r="A54" s="17" t="str">
         <f>IF(_ygl_week_all!E48="","",_ygl_week_all!E48)</f>
         <v/>
       </c>
-      <c r="B54" s="19" t="str">
+      <c r="B54" s="18" t="str">
         <f>IF(_ygl_week_all!F48="","",_ygl_week_all!F48)</f>
         <v/>
       </c>
@@ -2076,26 +2060,26 @@
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="14" t="str">
+      <c r="A55" s="13" t="str">
         <f>IF(_ygl_week_all!E49="","",_ygl_week_all!E49)</f>
         <v/>
       </c>
-      <c r="B55" s="15" t="str">
+      <c r="B55" s="14" t="str">
         <f>IF(_ygl_week_all!F49="","",_ygl_week_all!F49)</f>
         <v/>
       </c>
-      <c r="C55" s="16" t="str">
+      <c r="C55" s="15" t="str">
         <f>IF(_ygl_week_all!G49="","",_ygl_week_all!G49)</f>
         <v/>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="18" t="str">
+      <c r="A56" s="17" t="str">
         <f>IF(_ygl_week_all!E50="","",_ygl_week_all!E50)</f>
         <v/>
       </c>
-      <c r="B56" s="19" t="str">
+      <c r="B56" s="18" t="str">
         <f>IF(_ygl_week_all!F50="","",_ygl_week_all!F50)</f>
         <v/>
       </c>
@@ -2106,26 +2090,26 @@
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="14" t="str">
+      <c r="A57" s="13" t="str">
         <f>IF(_ygl_week_all!E51="","",_ygl_week_all!E51)</f>
         <v/>
       </c>
-      <c r="B57" s="15" t="str">
+      <c r="B57" s="14" t="str">
         <f>IF(_ygl_week_all!F51="","",_ygl_week_all!F51)</f>
         <v/>
       </c>
-      <c r="C57" s="16" t="str">
+      <c r="C57" s="15" t="str">
         <f>IF(_ygl_week_all!G51="","",_ygl_week_all!G51)</f>
         <v/>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="18" t="str">
+      <c r="A58" s="17" t="str">
         <f>IF(_ygl_week_all!E52="","",_ygl_week_all!E52)</f>
         <v/>
       </c>
-      <c r="B58" s="19" t="str">
+      <c r="B58" s="18" t="str">
         <f>IF(_ygl_week_all!F52="","",_ygl_week_all!F52)</f>
         <v/>
       </c>
@@ -2136,26 +2120,26 @@
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="14" t="str">
+      <c r="A59" s="13" t="str">
         <f>IF(_ygl_week_all!E53="","",_ygl_week_all!E53)</f>
         <v/>
       </c>
-      <c r="B59" s="15" t="str">
+      <c r="B59" s="14" t="str">
         <f>IF(_ygl_week_all!F53="","",_ygl_week_all!F53)</f>
         <v/>
       </c>
-      <c r="C59" s="16" t="str">
+      <c r="C59" s="15" t="str">
         <f>IF(_ygl_week_all!G53="","",_ygl_week_all!G53)</f>
         <v/>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18" t="str">
+      <c r="A60" s="17" t="str">
         <f>IF(_ygl_week_all!E54="","",_ygl_week_all!E54)</f>
         <v/>
       </c>
-      <c r="B60" s="19" t="str">
+      <c r="B60" s="18" t="str">
         <f>IF(_ygl_week_all!F54="","",_ygl_week_all!F54)</f>
         <v/>
       </c>
@@ -2166,26 +2150,26 @@
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="14" t="str">
+      <c r="A61" s="13" t="str">
         <f>IF(_ygl_week_all!E55="","",_ygl_week_all!E55)</f>
         <v/>
       </c>
-      <c r="B61" s="15" t="str">
+      <c r="B61" s="14" t="str">
         <f>IF(_ygl_week_all!F55="","",_ygl_week_all!F55)</f>
         <v/>
       </c>
-      <c r="C61" s="16" t="str">
+      <c r="C61" s="15" t="str">
         <f>IF(_ygl_week_all!G55="","",_ygl_week_all!G55)</f>
         <v/>
       </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="18" t="str">
+      <c r="A62" s="17" t="str">
         <f>IF(_ygl_week_all!E56="","",_ygl_week_all!E56)</f>
         <v/>
       </c>
-      <c r="B62" s="19" t="str">
+      <c r="B62" s="18" t="str">
         <f>IF(_ygl_week_all!F56="","",_ygl_week_all!F56)</f>
         <v/>
       </c>
@@ -2266,42 +2250,42 @@
   <sheetPr/>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="38.8796296296296" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="27.3796296296296" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2321,7 +2305,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/excel/finished/原供料/1.供料车间集控中心交接班记录.xlsx
+++ b/excel/finished/原供料/1.供料车间集控中心交接班记录.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="_ygl_week_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_ygl_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
@@ -167,6 +167,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -175,141 +304,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -326,13 +326,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,169 +470,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,32 +587,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -636,8 +614,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,28 +650,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,21 +1242,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="28.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="26.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="28.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:4">
+    <row r="1" ht="25.5" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1266,19 +1266,19 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_week_all!A2="","",_ygl_week_all!A2)</f>
+        <f>"日期："&amp;IF(_ygl_day_shift!A2="","",_ygl_day_shift!A2)</f>
         <v>日期：</v>
       </c>
       <c r="B2" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_week_all!B2="","",_ygl_week_all!B2)</f>
+        <f>"班次："&amp;IF(_ygl_day_shift!B2="","",_ygl_day_shift!B2)</f>
         <v>班次：</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_week_all!C2="","",_ygl_week_all!C2)</f>
+        <f>"交班确认人："&amp;IF(_ygl_day_shift!C2="","",_ygl_day_shift!C2)</f>
         <v>交班确认人：</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_week_all!D2="","",_ygl_week_all!D2)</f>
+        <f>"接班确认人："&amp;IF(_ygl_day_shift!D2="","",_ygl_day_shift!D2)</f>
         <v>接班确认人：</v>
       </c>
     </row>
@@ -1296,184 +1296,184 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="str">
-        <f>IF(_ygl_week_all!E2="","",_ygl_week_all!E2)</f>
+        <f>IF(_ygl_day_shift!E2="","",_ygl_day_shift!E2)</f>
         <v/>
       </c>
       <c r="B4" s="12" t="str">
-        <f>IF(_ygl_week_all!F2="","",_ygl_week_all!F2)</f>
+        <f>IF(_ygl_day_shift!F2="","",_ygl_day_shift!F2)</f>
         <v/>
       </c>
       <c r="C4" s="5" t="str">
-        <f>IF(_ygl_week_all!G2="","",_ygl_week_all!G2)</f>
+        <f>IF(_ygl_day_shift!G2="","",_ygl_day_shift!G2)</f>
         <v/>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="str">
-        <f>IF(_ygl_week_all!E3="","",_ygl_week_all!E3)</f>
+        <f>IF(_ygl_day_shift!E3="","",_ygl_day_shift!E3)</f>
         <v/>
       </c>
       <c r="B5" s="14" t="str">
-        <f>IF(_ygl_week_all!F3="","",_ygl_week_all!F3)</f>
+        <f>IF(_ygl_day_shift!F3="","",_ygl_day_shift!F3)</f>
         <v/>
       </c>
       <c r="C5" s="15" t="str">
-        <f>IF(_ygl_week_all!G3="","",_ygl_week_all!G3)</f>
+        <f>IF(_ygl_day_shift!G3="","",_ygl_day_shift!G3)</f>
         <v/>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="17" t="str">
-        <f>IF(_ygl_week_all!E4="","",_ygl_week_all!E4)</f>
+        <f>IF(_ygl_day_shift!E4="","",_ygl_day_shift!E4)</f>
         <v/>
       </c>
       <c r="B6" s="18" t="str">
-        <f>IF(_ygl_week_all!F4="","",_ygl_week_all!F4)</f>
+        <f>IF(_ygl_day_shift!F4="","",_ygl_day_shift!F4)</f>
         <v/>
       </c>
       <c r="C6" s="19" t="str">
-        <f>IF(_ygl_week_all!G4="","",_ygl_week_all!G4)</f>
+        <f>IF(_ygl_day_shift!G4="","",_ygl_day_shift!G4)</f>
         <v/>
       </c>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="13" t="str">
-        <f>IF(_ygl_week_all!E5="","",_ygl_week_all!E5)</f>
+        <f>IF(_ygl_day_shift!E5="","",_ygl_day_shift!E5)</f>
         <v/>
       </c>
       <c r="B7" s="14" t="str">
-        <f>IF(_ygl_week_all!F5="","",_ygl_week_all!F5)</f>
+        <f>IF(_ygl_day_shift!F5="","",_ygl_day_shift!F5)</f>
         <v/>
       </c>
       <c r="C7" s="15" t="str">
-        <f>IF(_ygl_week_all!G5="","",_ygl_week_all!G5)</f>
+        <f>IF(_ygl_day_shift!G5="","",_ygl_day_shift!G5)</f>
         <v/>
       </c>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="17" t="str">
-        <f>IF(_ygl_week_all!E6="","",_ygl_week_all!E6)</f>
+        <f>IF(_ygl_day_shift!E6="","",_ygl_day_shift!E6)</f>
         <v/>
       </c>
       <c r="B8" s="18" t="str">
-        <f>IF(_ygl_week_all!F6="","",_ygl_week_all!F6)</f>
+        <f>IF(_ygl_day_shift!F6="","",_ygl_day_shift!F6)</f>
         <v/>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(_ygl_week_all!G6="","",_ygl_week_all!G6)</f>
+        <f>IF(_ygl_day_shift!G6="","",_ygl_day_shift!G6)</f>
         <v/>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="str">
-        <f>IF(_ygl_week_all!E7="","",_ygl_week_all!E7)</f>
+        <f>IF(_ygl_day_shift!E7="","",_ygl_day_shift!E7)</f>
         <v/>
       </c>
       <c r="B9" s="14" t="str">
-        <f>IF(_ygl_week_all!F7="","",_ygl_week_all!F7)</f>
+        <f>IF(_ygl_day_shift!F7="","",_ygl_day_shift!F7)</f>
         <v/>
       </c>
       <c r="C9" s="15" t="str">
-        <f>IF(_ygl_week_all!G7="","",_ygl_week_all!G7)</f>
+        <f>IF(_ygl_day_shift!G7="","",_ygl_day_shift!G7)</f>
         <v/>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="17" t="str">
-        <f>IF(_ygl_week_all!E8="","",_ygl_week_all!E8)</f>
+        <f>IF(_ygl_day_shift!E8="","",_ygl_day_shift!E8)</f>
         <v/>
       </c>
       <c r="B10" s="18" t="str">
-        <f>IF(_ygl_week_all!F8="","",_ygl_week_all!F8)</f>
+        <f>IF(_ygl_day_shift!F8="","",_ygl_day_shift!F8)</f>
         <v/>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(_ygl_week_all!G8="","",_ygl_week_all!G8)</f>
+        <f>IF(_ygl_day_shift!G8="","",_ygl_day_shift!G8)</f>
         <v/>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="13" t="str">
-        <f>IF(_ygl_week_all!E9="","",_ygl_week_all!E9)</f>
+        <f>IF(_ygl_day_shift!E9="","",_ygl_day_shift!E9)</f>
         <v/>
       </c>
       <c r="B11" s="14" t="str">
-        <f>IF(_ygl_week_all!F9="","",_ygl_week_all!F9)</f>
+        <f>IF(_ygl_day_shift!F9="","",_ygl_day_shift!F9)</f>
         <v/>
       </c>
       <c r="C11" s="15" t="str">
-        <f>IF(_ygl_week_all!G9="","",_ygl_week_all!G9)</f>
+        <f>IF(_ygl_day_shift!G9="","",_ygl_day_shift!G9)</f>
         <v/>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="17" t="str">
-        <f>IF(_ygl_week_all!E10="","",_ygl_week_all!E10)</f>
+        <f>IF(_ygl_day_shift!E10="","",_ygl_day_shift!E10)</f>
         <v/>
       </c>
       <c r="B12" s="18" t="str">
-        <f>IF(_ygl_week_all!F10="","",_ygl_week_all!F10)</f>
+        <f>IF(_ygl_day_shift!F10="","",_ygl_day_shift!F10)</f>
         <v/>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(_ygl_week_all!G10="","",_ygl_week_all!G10)</f>
+        <f>IF(_ygl_day_shift!G10="","",_ygl_day_shift!G10)</f>
         <v/>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="13" t="str">
-        <f>IF(_ygl_week_all!E11="","",_ygl_week_all!E11)</f>
+        <f>IF(_ygl_day_shift!E11="","",_ygl_day_shift!E11)</f>
         <v/>
       </c>
       <c r="B13" s="14" t="str">
-        <f>IF(_ygl_week_all!F11="","",_ygl_week_all!F11)</f>
+        <f>IF(_ygl_day_shift!F11="","",_ygl_day_shift!F11)</f>
         <v/>
       </c>
       <c r="C13" s="15" t="str">
-        <f>IF(_ygl_week_all!G11="","",_ygl_week_all!G11)</f>
+        <f>IF(_ygl_day_shift!G11="","",_ygl_day_shift!G11)</f>
         <v/>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="17" t="str">
-        <f>IF(_ygl_week_all!E12="","",_ygl_week_all!E12)</f>
+        <f>IF(_ygl_day_shift!E12="","",_ygl_day_shift!E12)</f>
         <v/>
       </c>
       <c r="B14" s="18" t="str">
-        <f>IF(_ygl_week_all!F12="","",_ygl_week_all!F12)</f>
+        <f>IF(_ygl_day_shift!F12="","",_ygl_day_shift!F12)</f>
         <v/>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(_ygl_week_all!G12="","",_ygl_week_all!G12)</f>
+        <f>IF(_ygl_day_shift!G12="","",_ygl_day_shift!G12)</f>
         <v/>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_week_all!A13="","",_ygl_week_all!A13)</f>
+        <f>"日期："&amp;IF(_ygl_day_shift!A13="","",_ygl_day_shift!A13)</f>
         <v>日期：</v>
       </c>
       <c r="B15" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_week_all!B13="","",_ygl_week_all!B13)</f>
+        <f>"班次："&amp;IF(_ygl_day_shift!B13="","",_ygl_day_shift!B13)</f>
         <v>班次：</v>
       </c>
       <c r="C15" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_week_all!C13="","",_ygl_week_all!C13)</f>
+        <f>"交班确认人："&amp;IF(_ygl_day_shift!C13="","",_ygl_day_shift!C13)</f>
         <v>交班确认人：</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_week_all!D13="","",_ygl_week_all!D13)</f>
+        <f>"接班确认人："&amp;IF(_ygl_day_shift!D13="","",_ygl_day_shift!D13)</f>
         <v>接班确认人：</v>
       </c>
     </row>
@@ -1491,169 +1491,169 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="13" t="str">
-        <f>IF(_ygl_week_all!E14="","",_ygl_week_all!E14)</f>
+        <f>IF(_ygl_day_shift!E14="","",_ygl_day_shift!E14)</f>
         <v/>
       </c>
       <c r="B17" s="14" t="str">
-        <f>IF(_ygl_week_all!F14="","",_ygl_week_all!F14)</f>
+        <f>IF(_ygl_day_shift!F14="","",_ygl_day_shift!F14)</f>
         <v/>
       </c>
       <c r="C17" s="15" t="str">
-        <f>IF(_ygl_week_all!G14="","",_ygl_week_all!G14)</f>
+        <f>IF(_ygl_day_shift!G14="","",_ygl_day_shift!G14)</f>
         <v/>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="str">
-        <f>IF(_ygl_week_all!E15="","",_ygl_week_all!E15)</f>
+        <f>IF(_ygl_day_shift!E15="","",_ygl_day_shift!E15)</f>
         <v/>
       </c>
       <c r="B18" s="18" t="str">
-        <f>IF(_ygl_week_all!F15="","",_ygl_week_all!F15)</f>
+        <f>IF(_ygl_day_shift!F15="","",_ygl_day_shift!F15)</f>
         <v/>
       </c>
       <c r="C18" s="19" t="str">
-        <f>IF(_ygl_week_all!G15="","",_ygl_week_all!G15)</f>
+        <f>IF(_ygl_day_shift!G15="","",_ygl_day_shift!G15)</f>
         <v/>
       </c>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="str">
-        <f>IF(_ygl_week_all!E16="","",_ygl_week_all!E16)</f>
+        <f>IF(_ygl_day_shift!E16="","",_ygl_day_shift!E16)</f>
         <v/>
       </c>
       <c r="B19" s="14" t="str">
-        <f>IF(_ygl_week_all!F16="","",_ygl_week_all!F16)</f>
+        <f>IF(_ygl_day_shift!F16="","",_ygl_day_shift!F16)</f>
         <v/>
       </c>
       <c r="C19" s="15" t="str">
-        <f>IF(_ygl_week_all!G16="","",_ygl_week_all!G16)</f>
+        <f>IF(_ygl_day_shift!G16="","",_ygl_day_shift!G16)</f>
         <v/>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="17" t="str">
-        <f>IF(_ygl_week_all!E17="","",_ygl_week_all!E17)</f>
+        <f>IF(_ygl_day_shift!E17="","",_ygl_day_shift!E17)</f>
         <v/>
       </c>
       <c r="B20" s="18" t="str">
-        <f>IF(_ygl_week_all!F17="","",_ygl_week_all!F17)</f>
+        <f>IF(_ygl_day_shift!F17="","",_ygl_day_shift!F17)</f>
         <v/>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(_ygl_week_all!G17="","",_ygl_week_all!G17)</f>
+        <f>IF(_ygl_day_shift!G17="","",_ygl_day_shift!G17)</f>
         <v/>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="str">
-        <f>IF(_ygl_week_all!E18="","",_ygl_week_all!E18)</f>
+        <f>IF(_ygl_day_shift!E18="","",_ygl_day_shift!E18)</f>
         <v/>
       </c>
       <c r="B21" s="14" t="str">
-        <f>IF(_ygl_week_all!F18="","",_ygl_week_all!F18)</f>
+        <f>IF(_ygl_day_shift!F18="","",_ygl_day_shift!F18)</f>
         <v/>
       </c>
       <c r="C21" s="15" t="str">
-        <f>IF(_ygl_week_all!G18="","",_ygl_week_all!G18)</f>
+        <f>IF(_ygl_day_shift!G18="","",_ygl_day_shift!G18)</f>
         <v/>
       </c>
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="str">
-        <f>IF(_ygl_week_all!E19="","",_ygl_week_all!E19)</f>
+        <f>IF(_ygl_day_shift!E19="","",_ygl_day_shift!E19)</f>
         <v/>
       </c>
       <c r="B22" s="18" t="str">
-        <f>IF(_ygl_week_all!F19="","",_ygl_week_all!F19)</f>
+        <f>IF(_ygl_day_shift!F19="","",_ygl_day_shift!F19)</f>
         <v/>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(_ygl_week_all!G19="","",_ygl_week_all!G19)</f>
+        <f>IF(_ygl_day_shift!G19="","",_ygl_day_shift!G19)</f>
         <v/>
       </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13" t="str">
-        <f>IF(_ygl_week_all!E20="","",_ygl_week_all!E20)</f>
+        <f>IF(_ygl_day_shift!E20="","",_ygl_day_shift!E20)</f>
         <v/>
       </c>
       <c r="B23" s="14" t="str">
-        <f>IF(_ygl_week_all!F20="","",_ygl_week_all!F20)</f>
+        <f>IF(_ygl_day_shift!F20="","",_ygl_day_shift!F20)</f>
         <v/>
       </c>
       <c r="C23" s="15" t="str">
-        <f>IF(_ygl_week_all!G20="","",_ygl_week_all!G20)</f>
+        <f>IF(_ygl_day_shift!G20="","",_ygl_day_shift!G20)</f>
         <v/>
       </c>
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="17" t="str">
-        <f>IF(_ygl_week_all!E21="","",_ygl_week_all!E21)</f>
+        <f>IF(_ygl_day_shift!E21="","",_ygl_day_shift!E21)</f>
         <v/>
       </c>
       <c r="B24" s="18" t="str">
-        <f>IF(_ygl_week_all!F21="","",_ygl_week_all!F21)</f>
+        <f>IF(_ygl_day_shift!F21="","",_ygl_day_shift!F21)</f>
         <v/>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(_ygl_week_all!G21="","",_ygl_week_all!G21)</f>
+        <f>IF(_ygl_day_shift!G21="","",_ygl_day_shift!G21)</f>
         <v/>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="str">
-        <f>IF(_ygl_week_all!E22="","",_ygl_week_all!E22)</f>
+        <f>IF(_ygl_day_shift!E22="","",_ygl_day_shift!E22)</f>
         <v/>
       </c>
       <c r="B25" s="14" t="str">
-        <f>IF(_ygl_week_all!F22="","",_ygl_week_all!F22)</f>
+        <f>IF(_ygl_day_shift!F22="","",_ygl_day_shift!F22)</f>
         <v/>
       </c>
       <c r="C25" s="15" t="str">
-        <f>IF(_ygl_week_all!G22="","",_ygl_week_all!G22)</f>
+        <f>IF(_ygl_day_shift!G22="","",_ygl_day_shift!G22)</f>
         <v/>
       </c>
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="17" t="str">
-        <f>IF(_ygl_week_all!E23="","",_ygl_week_all!E23)</f>
+        <f>IF(_ygl_day_shift!E23="","",_ygl_day_shift!E23)</f>
         <v/>
       </c>
       <c r="B26" s="18" t="str">
-        <f>IF(_ygl_week_all!F23="","",_ygl_week_all!F23)</f>
+        <f>IF(_ygl_day_shift!F23="","",_ygl_day_shift!F23)</f>
         <v/>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(_ygl_week_all!G23="","",_ygl_week_all!G23)</f>
+        <f>IF(_ygl_day_shift!G23="","",_ygl_day_shift!G23)</f>
         <v/>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_week_all!A24="","",_ygl_week_all!A24)</f>
+        <f>"日期："&amp;IF(_ygl_day_shift!A24="","",_ygl_day_shift!A24)</f>
         <v>日期：</v>
       </c>
       <c r="B27" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_week_all!B24="","",_ygl_week_all!B24)</f>
+        <f>"班次："&amp;IF(_ygl_day_shift!B24="","",_ygl_day_shift!B24)</f>
         <v>班次：</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_week_all!C24="","",_ygl_week_all!C24)</f>
+        <f>"交班确认人："&amp;IF(_ygl_day_shift!C24="","",_ygl_day_shift!C24)</f>
         <v>交班确认人：</v>
       </c>
       <c r="D27" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_week_all!D24="","",_ygl_week_all!D24)</f>
+        <f>"接班确认人："&amp;IF(_ygl_day_shift!D24="","",_ygl_day_shift!D24)</f>
         <v>接班确认人：</v>
       </c>
     </row>
@@ -1671,516 +1671,156 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="13" t="str">
-        <f>IF(_ygl_week_all!E25="","",_ygl_week_all!E25)</f>
+        <f>IF(_ygl_day_shift!E25="","",_ygl_day_shift!E25)</f>
         <v/>
       </c>
       <c r="B29" s="14" t="str">
-        <f>IF(_ygl_week_all!F25="","",_ygl_week_all!F25)</f>
+        <f>IF(_ygl_day_shift!F25="","",_ygl_day_shift!F25)</f>
         <v/>
       </c>
       <c r="C29" s="15" t="str">
-        <f>IF(_ygl_week_all!G25="","",_ygl_week_all!G25)</f>
+        <f>IF(_ygl_day_shift!G25="","",_ygl_day_shift!G25)</f>
         <v/>
       </c>
       <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="17" t="str">
-        <f>IF(_ygl_week_all!E26="","",_ygl_week_all!E26)</f>
+        <f>IF(_ygl_day_shift!E26="","",_ygl_day_shift!E26)</f>
         <v/>
       </c>
       <c r="B30" s="18" t="str">
-        <f>IF(_ygl_week_all!F26="","",_ygl_week_all!F26)</f>
+        <f>IF(_ygl_day_shift!F26="","",_ygl_day_shift!F26)</f>
         <v/>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(_ygl_week_all!G26="","",_ygl_week_all!G26)</f>
+        <f>IF(_ygl_day_shift!G26="","",_ygl_day_shift!G26)</f>
         <v/>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="str">
-        <f>IF(_ygl_week_all!E27="","",_ygl_week_all!E27)</f>
+        <f>IF(_ygl_day_shift!E27="","",_ygl_day_shift!E27)</f>
         <v/>
       </c>
       <c r="B31" s="14" t="str">
-        <f>IF(_ygl_week_all!F27="","",_ygl_week_all!F27)</f>
+        <f>IF(_ygl_day_shift!F27="","",_ygl_day_shift!F27)</f>
         <v/>
       </c>
       <c r="C31" s="15" t="str">
-        <f>IF(_ygl_week_all!G27="","",_ygl_week_all!G27)</f>
+        <f>IF(_ygl_day_shift!G27="","",_ygl_day_shift!G27)</f>
         <v/>
       </c>
       <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="17" t="str">
-        <f>IF(_ygl_week_all!E28="","",_ygl_week_all!E28)</f>
+        <f>IF(_ygl_day_shift!E28="","",_ygl_day_shift!E28)</f>
         <v/>
       </c>
       <c r="B32" s="18" t="str">
-        <f>IF(_ygl_week_all!F28="","",_ygl_week_all!F28)</f>
+        <f>IF(_ygl_day_shift!F28="","",_ygl_day_shift!F28)</f>
         <v/>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(_ygl_week_all!G28="","",_ygl_week_all!G28)</f>
+        <f>IF(_ygl_day_shift!G28="","",_ygl_day_shift!G28)</f>
         <v/>
       </c>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="str">
-        <f>IF(_ygl_week_all!E29="","",_ygl_week_all!E29)</f>
+        <f>IF(_ygl_day_shift!E29="","",_ygl_day_shift!E29)</f>
         <v/>
       </c>
       <c r="B33" s="14" t="str">
-        <f>IF(_ygl_week_all!F29="","",_ygl_week_all!F29)</f>
+        <f>IF(_ygl_day_shift!F29="","",_ygl_day_shift!F29)</f>
         <v/>
       </c>
       <c r="C33" s="15" t="str">
-        <f>IF(_ygl_week_all!G29="","",_ygl_week_all!G29)</f>
+        <f>IF(_ygl_day_shift!G29="","",_ygl_day_shift!G29)</f>
         <v/>
       </c>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="17" t="str">
-        <f>IF(_ygl_week_all!E30="","",_ygl_week_all!E30)</f>
+        <f>IF(_ygl_day_shift!E30="","",_ygl_day_shift!E30)</f>
         <v/>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(_ygl_week_all!F30="","",_ygl_week_all!F30)</f>
+        <f>IF(_ygl_day_shift!F30="","",_ygl_day_shift!F30)</f>
         <v/>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(_ygl_week_all!G30="","",_ygl_week_all!G30)</f>
+        <f>IF(_ygl_day_shift!G30="","",_ygl_day_shift!G30)</f>
         <v/>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="13" t="str">
-        <f>IF(_ygl_week_all!E31="","",_ygl_week_all!E31)</f>
+        <f>IF(_ygl_day_shift!E31="","",_ygl_day_shift!E31)</f>
         <v/>
       </c>
       <c r="B35" s="14" t="str">
-        <f>IF(_ygl_week_all!F31="","",_ygl_week_all!F31)</f>
+        <f>IF(_ygl_day_shift!F31="","",_ygl_day_shift!F31)</f>
         <v/>
       </c>
       <c r="C35" s="15" t="str">
-        <f>IF(_ygl_week_all!G31="","",_ygl_week_all!G31)</f>
+        <f>IF(_ygl_day_shift!G31="","",_ygl_day_shift!G31)</f>
         <v/>
       </c>
       <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="17" t="str">
-        <f>IF(_ygl_week_all!E32="","",_ygl_week_all!E32)</f>
+        <f>IF(_ygl_day_shift!E32="","",_ygl_day_shift!E32)</f>
         <v/>
       </c>
       <c r="B36" s="18" t="str">
-        <f>IF(_ygl_week_all!F32="","",_ygl_week_all!F32)</f>
+        <f>IF(_ygl_day_shift!F32="","",_ygl_day_shift!F32)</f>
         <v/>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(_ygl_week_all!G32="","",_ygl_week_all!G32)</f>
+        <f>IF(_ygl_day_shift!G32="","",_ygl_day_shift!G32)</f>
         <v/>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="str">
-        <f>IF(_ygl_week_all!E33="","",_ygl_week_all!E33)</f>
+        <f>IF(_ygl_day_shift!E33="","",_ygl_day_shift!E33)</f>
         <v/>
       </c>
       <c r="B37" s="14" t="str">
-        <f>IF(_ygl_week_all!F33="","",_ygl_week_all!F33)</f>
+        <f>IF(_ygl_day_shift!F33="","",_ygl_day_shift!F33)</f>
         <v/>
       </c>
       <c r="C37" s="15" t="str">
-        <f>IF(_ygl_week_all!G33="","",_ygl_week_all!G33)</f>
+        <f>IF(_ygl_day_shift!G33="","",_ygl_day_shift!G33)</f>
         <v/>
       </c>
       <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="17" t="str">
-        <f>IF(_ygl_week_all!E34="","",_ygl_week_all!E34)</f>
+        <f>IF(_ygl_day_shift!E34="","",_ygl_day_shift!E34)</f>
         <v/>
       </c>
       <c r="B38" s="18" t="str">
-        <f>IF(_ygl_week_all!F34="","",_ygl_week_all!F34)</f>
+        <f>IF(_ygl_day_shift!F34="","",_ygl_day_shift!F34)</f>
         <v/>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(_ygl_week_all!G34="","",_ygl_week_all!G34)</f>
+        <f>IF(_ygl_day_shift!G34="","",_ygl_day_shift!G34)</f>
         <v/>
       </c>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_week_all!A35="","",_ygl_week_all!A35)</f>
-        <v>日期：</v>
-      </c>
-      <c r="B39" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_week_all!B35="","",_ygl_week_all!B35)</f>
-        <v>班次：</v>
-      </c>
-      <c r="C39" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_week_all!C35="","",_ygl_week_all!C35)</f>
-        <v>交班确认人：</v>
-      </c>
-      <c r="D39" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_week_all!D35="","",_ygl_week_all!D35)</f>
-        <v>接班确认人：</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="13" t="str">
-        <f>IF(_ygl_week_all!E36="","",_ygl_week_all!E36)</f>
-        <v/>
-      </c>
-      <c r="B41" s="14" t="str">
-        <f>IF(_ygl_week_all!F36="","",_ygl_week_all!F36)</f>
-        <v/>
-      </c>
-      <c r="C41" s="15" t="str">
-        <f>IF(_ygl_week_all!G36="","",_ygl_week_all!G36)</f>
-        <v/>
-      </c>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="17" t="str">
-        <f>IF(_ygl_week_all!E37="","",_ygl_week_all!E37)</f>
-        <v/>
-      </c>
-      <c r="B42" s="18" t="str">
-        <f>IF(_ygl_week_all!F37="","",_ygl_week_all!F37)</f>
-        <v/>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>IF(_ygl_week_all!G37="","",_ygl_week_all!G37)</f>
-        <v/>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="13" t="str">
-        <f>IF(_ygl_week_all!E38="","",_ygl_week_all!E38)</f>
-        <v/>
-      </c>
-      <c r="B43" s="14" t="str">
-        <f>IF(_ygl_week_all!F38="","",_ygl_week_all!F38)</f>
-        <v/>
-      </c>
-      <c r="C43" s="15" t="str">
-        <f>IF(_ygl_week_all!G38="","",_ygl_week_all!G38)</f>
-        <v/>
-      </c>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="17" t="str">
-        <f>IF(_ygl_week_all!E39="","",_ygl_week_all!E39)</f>
-        <v/>
-      </c>
-      <c r="B44" s="18" t="str">
-        <f>IF(_ygl_week_all!F39="","",_ygl_week_all!F39)</f>
-        <v/>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f>IF(_ygl_week_all!G39="","",_ygl_week_all!G39)</f>
-        <v/>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="13" t="str">
-        <f>IF(_ygl_week_all!E40="","",_ygl_week_all!E40)</f>
-        <v/>
-      </c>
-      <c r="B45" s="14" t="str">
-        <f>IF(_ygl_week_all!F40="","",_ygl_week_all!F40)</f>
-        <v/>
-      </c>
-      <c r="C45" s="15" t="str">
-        <f>IF(_ygl_week_all!G40="","",_ygl_week_all!G40)</f>
-        <v/>
-      </c>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="17" t="str">
-        <f>IF(_ygl_week_all!E41="","",_ygl_week_all!E41)</f>
-        <v/>
-      </c>
-      <c r="B46" s="18" t="str">
-        <f>IF(_ygl_week_all!F41="","",_ygl_week_all!F41)</f>
-        <v/>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f>IF(_ygl_week_all!G41="","",_ygl_week_all!G41)</f>
-        <v/>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="13" t="str">
-        <f>IF(_ygl_week_all!E42="","",_ygl_week_all!E42)</f>
-        <v/>
-      </c>
-      <c r="B47" s="14" t="str">
-        <f>IF(_ygl_week_all!F42="","",_ygl_week_all!F42)</f>
-        <v/>
-      </c>
-      <c r="C47" s="15" t="str">
-        <f>IF(_ygl_week_all!G42="","",_ygl_week_all!G42)</f>
-        <v/>
-      </c>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="17" t="str">
-        <f>IF(_ygl_week_all!E43="","",_ygl_week_all!E43)</f>
-        <v/>
-      </c>
-      <c r="B48" s="18" t="str">
-        <f>IF(_ygl_week_all!F43="","",_ygl_week_all!F43)</f>
-        <v/>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f>IF(_ygl_week_all!G43="","",_ygl_week_all!G43)</f>
-        <v/>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="13" t="str">
-        <f>IF(_ygl_week_all!E44="","",_ygl_week_all!E44)</f>
-        <v/>
-      </c>
-      <c r="B49" s="14" t="str">
-        <f>IF(_ygl_week_all!F44="","",_ygl_week_all!F44)</f>
-        <v/>
-      </c>
-      <c r="C49" s="15" t="str">
-        <f>IF(_ygl_week_all!G44="","",_ygl_week_all!G44)</f>
-        <v/>
-      </c>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="17" t="str">
-        <f>IF(_ygl_week_all!E45="","",_ygl_week_all!E45)</f>
-        <v/>
-      </c>
-      <c r="B50" s="18" t="str">
-        <f>IF(_ygl_week_all!F45="","",_ygl_week_all!F45)</f>
-        <v/>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f>IF(_ygl_week_all!G45="","",_ygl_week_all!G45)</f>
-        <v/>
-      </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_week_all!A46="","",_ygl_week_all!A46)</f>
-        <v>日期：</v>
-      </c>
-      <c r="B51" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_week_all!B46="","",_ygl_week_all!B46)</f>
-        <v>班次：</v>
-      </c>
-      <c r="C51" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_week_all!C46="","",_ygl_week_all!C46)</f>
-        <v>交班确认人：</v>
-      </c>
-      <c r="D51" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_week_all!D46="","",_ygl_week_all!D46)</f>
-        <v>接班确认人：</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="17" t="str">
-        <f>IF(_ygl_week_all!E47="","",_ygl_week_all!E47)</f>
-        <v/>
-      </c>
-      <c r="B53" s="18" t="str">
-        <f>IF(_ygl_week_all!F47="","",_ygl_week_all!F47)</f>
-        <v/>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f>IF(_ygl_week_all!G47="","",_ygl_week_all!G47)</f>
-        <v/>
-      </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="17" t="str">
-        <f>IF(_ygl_week_all!E48="","",_ygl_week_all!E48)</f>
-        <v/>
-      </c>
-      <c r="B54" s="18" t="str">
-        <f>IF(_ygl_week_all!F48="","",_ygl_week_all!F48)</f>
-        <v/>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f>IF(_ygl_week_all!G48="","",_ygl_week_all!G48)</f>
-        <v/>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="13" t="str">
-        <f>IF(_ygl_week_all!E49="","",_ygl_week_all!E49)</f>
-        <v/>
-      </c>
-      <c r="B55" s="14" t="str">
-        <f>IF(_ygl_week_all!F49="","",_ygl_week_all!F49)</f>
-        <v/>
-      </c>
-      <c r="C55" s="15" t="str">
-        <f>IF(_ygl_week_all!G49="","",_ygl_week_all!G49)</f>
-        <v/>
-      </c>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="17" t="str">
-        <f>IF(_ygl_week_all!E50="","",_ygl_week_all!E50)</f>
-        <v/>
-      </c>
-      <c r="B56" s="18" t="str">
-        <f>IF(_ygl_week_all!F50="","",_ygl_week_all!F50)</f>
-        <v/>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f>IF(_ygl_week_all!G50="","",_ygl_week_all!G50)</f>
-        <v/>
-      </c>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="13" t="str">
-        <f>IF(_ygl_week_all!E51="","",_ygl_week_all!E51)</f>
-        <v/>
-      </c>
-      <c r="B57" s="14" t="str">
-        <f>IF(_ygl_week_all!F51="","",_ygl_week_all!F51)</f>
-        <v/>
-      </c>
-      <c r="C57" s="15" t="str">
-        <f>IF(_ygl_week_all!G51="","",_ygl_week_all!G51)</f>
-        <v/>
-      </c>
-      <c r="D57" s="16"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="17" t="str">
-        <f>IF(_ygl_week_all!E52="","",_ygl_week_all!E52)</f>
-        <v/>
-      </c>
-      <c r="B58" s="18" t="str">
-        <f>IF(_ygl_week_all!F52="","",_ygl_week_all!F52)</f>
-        <v/>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f>IF(_ygl_week_all!G52="","",_ygl_week_all!G52)</f>
-        <v/>
-      </c>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="13" t="str">
-        <f>IF(_ygl_week_all!E53="","",_ygl_week_all!E53)</f>
-        <v/>
-      </c>
-      <c r="B59" s="14" t="str">
-        <f>IF(_ygl_week_all!F53="","",_ygl_week_all!F53)</f>
-        <v/>
-      </c>
-      <c r="C59" s="15" t="str">
-        <f>IF(_ygl_week_all!G53="","",_ygl_week_all!G53)</f>
-        <v/>
-      </c>
-      <c r="D59" s="16"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="17" t="str">
-        <f>IF(_ygl_week_all!E54="","",_ygl_week_all!E54)</f>
-        <v/>
-      </c>
-      <c r="B60" s="18" t="str">
-        <f>IF(_ygl_week_all!F54="","",_ygl_week_all!F54)</f>
-        <v/>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f>IF(_ygl_week_all!G54="","",_ygl_week_all!G54)</f>
-        <v/>
-      </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="13" t="str">
-        <f>IF(_ygl_week_all!E55="","",_ygl_week_all!E55)</f>
-        <v/>
-      </c>
-      <c r="B61" s="14" t="str">
-        <f>IF(_ygl_week_all!F55="","",_ygl_week_all!F55)</f>
-        <v/>
-      </c>
-      <c r="C61" s="15" t="str">
-        <f>IF(_ygl_week_all!G55="","",_ygl_week_all!G55)</f>
-        <v/>
-      </c>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="17" t="str">
-        <f>IF(_ygl_week_all!E56="","",_ygl_week_all!E56)</f>
-        <v/>
-      </c>
-      <c r="B62" s="18" t="str">
-        <f>IF(_ygl_week_all!F56="","",_ygl_week_all!F56)</f>
-        <v/>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f>IF(_ygl_week_all!G56="","",_ygl_week_all!G56)</f>
-        <v/>
-      </c>
-      <c r="D62" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="35">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2216,28 +1856,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2251,18 +1869,18 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="38.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="38.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="27.3796296296296" customWidth="1"/>
+    <col min="7" max="7" width="27.3833333333333" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2305,7 +1923,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/excel/finished/原供料/1.供料车间集控中心交接班记录.xlsx
+++ b/excel/finished/原供料/1.供料车间集控中心交接班记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>供料车间集控中心交接班记录</t>
   </si>
   <si>
+    <t>日期：</t>
+  </si>
+  <si>
+    <t>班次</t>
+  </si>
+  <si>
+    <t>交班确认人：</t>
+  </si>
+  <si>
+    <t>接班确认人：</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -28,6 +40,9 @@
   </si>
   <si>
     <t>处理情况</t>
+  </si>
+  <si>
+    <t>班次：</t>
   </si>
   <si>
     <t>shiftDay</t>
@@ -119,11 +134,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,8 +197,61 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +266,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,107 +325,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,19 +341,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,25 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,128 +537,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -523,9 +550,38 @@
       <left style="thin">
         <color theme="8"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="8"/>
       </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="8"/>
       </top>
@@ -548,9 +604,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="8"/>
@@ -564,9 +618,7 @@
       <left style="thin">
         <color theme="8"/>
       </left>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color theme="8"/>
@@ -587,26 +639,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,36 +651,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +679,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -682,6 +702,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,149 +751,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,50 +912,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1242,620 +1351,814 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E9" sqref="E9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="28.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="26.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="6.77777777777778" customWidth="1"/>
+    <col min="2" max="2" width="9.17592592592593" customWidth="1"/>
+    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="21.7777777777778" customWidth="1"/>
+    <col min="5" max="6" width="13.7777777777778" customWidth="1"/>
+    <col min="7" max="8" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:4">
+    <row r="1" ht="25.8" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_day_shift!A2="","",_ygl_day_shift!A2)</f>
-        <v>日期：</v>
-      </c>
-      <c r="B2" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_day_shift!B2="","",_ygl_day_shift!B2)</f>
-        <v>班次：</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_day_shift!C2="","",_ygl_day_shift!C2)</f>
-        <v>交班确认人：</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_day_shift!D2="","",_ygl_day_shift!D2)</f>
-        <v>接班确认人：</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="7" t="str">
+        <f>IF(_ygl_day_shift!A2="","",_ygl_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D2" s="8" t="str">
+        <f>IF(_ygl_day_shift!B2="","",_ygl_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="str">
-        <f>IF(_ygl_day_shift!E2="","",_ygl_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="B4" s="12" t="str">
+      <c r="F2" s="8" t="str">
+        <f>IF(_ygl_day_shift!C2="","",_ygl_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f>IF(_ygl_day_shift!D2="","",_ygl_day_shift!D2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="str">
         <f>IF(_ygl_day_shift!F2="","",_ygl_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="str">
         <f>IF(_ygl_day_shift!G2="","",_ygl_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13" t="str">
-        <f>IF(_ygl_day_shift!E3="","",_ygl_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="B5" s="14" t="str">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="str">
         <f>IF(_ygl_day_shift!F3="","",_ygl_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="str">
         <f>IF(_ygl_day_shift!G3="","",_ygl_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="str">
-        <f>IF(_ygl_day_shift!E4="","",_ygl_day_shift!E4)</f>
-        <v/>
-      </c>
-      <c r="B6" s="18" t="str">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="24" t="str">
         <f>IF(_ygl_day_shift!F4="","",_ygl_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="str">
         <f>IF(_ygl_day_shift!G4="","",_ygl_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13" t="str">
-        <f>IF(_ygl_day_shift!E5="","",_ygl_day_shift!E5)</f>
-        <v/>
-      </c>
-      <c r="B7" s="14" t="str">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="str">
         <f>IF(_ygl_day_shift!F5="","",_ygl_day_shift!F5)</f>
         <v/>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="str">
         <f>IF(_ygl_day_shift!G5="","",_ygl_day_shift!G5)</f>
         <v/>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="17" t="str">
-        <f>IF(_ygl_day_shift!E6="","",_ygl_day_shift!E6)</f>
-        <v/>
-      </c>
-      <c r="B8" s="18" t="str">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="24" t="str">
         <f>IF(_ygl_day_shift!F6="","",_ygl_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="str">
         <f>IF(_ygl_day_shift!G6="","",_ygl_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13" t="str">
-        <f>IF(_ygl_day_shift!E7="","",_ygl_day_shift!E7)</f>
-        <v/>
-      </c>
-      <c r="B9" s="14" t="str">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="str">
         <f>IF(_ygl_day_shift!F7="","",_ygl_day_shift!F7)</f>
         <v/>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="str">
         <f>IF(_ygl_day_shift!G7="","",_ygl_day_shift!G7)</f>
         <v/>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="17" t="str">
-        <f>IF(_ygl_day_shift!E8="","",_ygl_day_shift!E8)</f>
-        <v/>
-      </c>
-      <c r="B10" s="18" t="str">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="24" t="str">
         <f>IF(_ygl_day_shift!F8="","",_ygl_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="str">
         <f>IF(_ygl_day_shift!G8="","",_ygl_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13" t="str">
-        <f>IF(_ygl_day_shift!E9="","",_ygl_day_shift!E9)</f>
-        <v/>
-      </c>
-      <c r="B11" s="14" t="str">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="str">
         <f>IF(_ygl_day_shift!F9="","",_ygl_day_shift!F9)</f>
         <v/>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="str">
         <f>IF(_ygl_day_shift!G9="","",_ygl_day_shift!G9)</f>
         <v/>
       </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="17" t="str">
-        <f>IF(_ygl_day_shift!E10="","",_ygl_day_shift!E10)</f>
-        <v/>
-      </c>
-      <c r="B12" s="18" t="str">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="24" t="str">
         <f>IF(_ygl_day_shift!F10="","",_ygl_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="D12" s="24"/>
+      <c r="E12" s="25" t="str">
         <f>IF(_ygl_day_shift!G10="","",_ygl_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="13" t="str">
-        <f>IF(_ygl_day_shift!E11="","",_ygl_day_shift!E11)</f>
-        <v/>
-      </c>
-      <c r="B13" s="14" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="18">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="str">
         <f>IF(_ygl_day_shift!F11="","",_ygl_day_shift!F11)</f>
         <v/>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="str">
         <f>IF(_ygl_day_shift!G11="","",_ygl_day_shift!G11)</f>
         <v/>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="17" t="str">
-        <f>IF(_ygl_day_shift!E12="","",_ygl_day_shift!E12)</f>
-        <v/>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>IF(_ygl_day_shift!F12="","",_ygl_day_shift!F12)</f>
-        <v/>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f>IF(_ygl_day_shift!G12="","",_ygl_day_shift!G12)</f>
-        <v/>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_day_shift!A13="","",_ygl_day_shift!A13)</f>
-        <v>日期：</v>
-      </c>
-      <c r="B15" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_day_shift!B13="","",_ygl_day_shift!B13)</f>
-        <v>班次：</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_day_shift!C13="","",_ygl_day_shift!C13)</f>
-        <v>交班确认人：</v>
-      </c>
-      <c r="D15" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_day_shift!D13="","",_ygl_day_shift!D13)</f>
-        <v>接班确认人：</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B14" s="8" t="str">
+        <f>IF(_ygl_day_shift!A13="","",_ygl_day_shift!A13)</f>
+        <v/>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>IF(_ygl_day_shift!B13="","",_ygl_day_shift!B13)</f>
+        <v/>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f>IF(_ygl_day_shift!C13="","",_ygl_day_shift!C13)</f>
+        <v/>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>IF(_ygl_day_shift!D13="","",_ygl_day_shift!D13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="28">
+        <v>1</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="str">
+        <f>IF(_ygl_day_shift!F14="","",_ygl_day_shift!F14)</f>
+        <v/>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="str">
+        <f>IF(_ygl_day_shift!G14="","",_ygl_day_shift!G14)</f>
+        <v/>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="34">
         <v>2</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="str">
+        <f>IF(_ygl_day_shift!F15="","",_ygl_day_shift!F15)</f>
+        <v/>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="10" t="str">
+        <f>IF(_ygl_day_shift!G15="","",_ygl_day_shift!G15)</f>
+        <v/>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28">
         <v>3</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="13" t="str">
-        <f>IF(_ygl_day_shift!E14="","",_ygl_day_shift!E14)</f>
-        <v/>
-      </c>
-      <c r="B17" s="14" t="str">
-        <f>IF(_ygl_day_shift!F14="","",_ygl_day_shift!F14)</f>
-        <v/>
-      </c>
-      <c r="C17" s="15" t="str">
-        <f>IF(_ygl_day_shift!G14="","",_ygl_day_shift!G14)</f>
-        <v/>
-      </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="17" t="str">
-        <f>IF(_ygl_day_shift!E15="","",_ygl_day_shift!E15)</f>
-        <v/>
-      </c>
-      <c r="B18" s="18" t="str">
-        <f>IF(_ygl_day_shift!F15="","",_ygl_day_shift!F15)</f>
-        <v/>
-      </c>
-      <c r="C18" s="19" t="str">
-        <f>IF(_ygl_day_shift!G15="","",_ygl_day_shift!G15)</f>
-        <v/>
-      </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="13" t="str">
-        <f>IF(_ygl_day_shift!E16="","",_ygl_day_shift!E16)</f>
-        <v/>
-      </c>
-      <c r="B19" s="14" t="str">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="str">
         <f>IF(_ygl_day_shift!F16="","",_ygl_day_shift!F16)</f>
         <v/>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="D18" s="30"/>
+      <c r="E18" s="31" t="str">
         <f>IF(_ygl_day_shift!G16="","",_ygl_day_shift!G16)</f>
         <v/>
       </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="17" t="str">
-        <f>IF(_ygl_day_shift!E17="","",_ygl_day_shift!E17)</f>
-        <v/>
-      </c>
-      <c r="B20" s="18" t="str">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="34">
+        <v>4</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="str">
         <f>IF(_ygl_day_shift!F17="","",_ygl_day_shift!F17)</f>
         <v/>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="D19" s="36"/>
+      <c r="E19" s="10" t="str">
         <f>IF(_ygl_day_shift!G17="","",_ygl_day_shift!G17)</f>
         <v/>
       </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13" t="str">
-        <f>IF(_ygl_day_shift!E18="","",_ygl_day_shift!E18)</f>
-        <v/>
-      </c>
-      <c r="B21" s="14" t="str">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="28">
+        <v>5</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="str">
         <f>IF(_ygl_day_shift!F18="","",_ygl_day_shift!F18)</f>
         <v/>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="D20" s="30"/>
+      <c r="E20" s="31" t="str">
         <f>IF(_ygl_day_shift!G18="","",_ygl_day_shift!G18)</f>
         <v/>
       </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="17" t="str">
-        <f>IF(_ygl_day_shift!E19="","",_ygl_day_shift!E19)</f>
-        <v/>
-      </c>
-      <c r="B22" s="18" t="str">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="34">
+        <v>6</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="str">
         <f>IF(_ygl_day_shift!F19="","",_ygl_day_shift!F19)</f>
         <v/>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="D21" s="36"/>
+      <c r="E21" s="10" t="str">
         <f>IF(_ygl_day_shift!G19="","",_ygl_day_shift!G19)</f>
         <v/>
       </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13" t="str">
-        <f>IF(_ygl_day_shift!E20="","",_ygl_day_shift!E20)</f>
-        <v/>
-      </c>
-      <c r="B23" s="14" t="str">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="28">
+        <v>7</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="str">
         <f>IF(_ygl_day_shift!F20="","",_ygl_day_shift!F20)</f>
         <v/>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="D22" s="30"/>
+      <c r="E22" s="31" t="str">
         <f>IF(_ygl_day_shift!G20="","",_ygl_day_shift!G20)</f>
         <v/>
       </c>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="17" t="str">
-        <f>IF(_ygl_day_shift!E21="","",_ygl_day_shift!E21)</f>
-        <v/>
-      </c>
-      <c r="B24" s="18" t="str">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="34">
+        <v>8</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="str">
         <f>IF(_ygl_day_shift!F21="","",_ygl_day_shift!F21)</f>
         <v/>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="D23" s="36"/>
+      <c r="E23" s="10" t="str">
         <f>IF(_ygl_day_shift!G21="","",_ygl_day_shift!G21)</f>
         <v/>
       </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13" t="str">
-        <f>IF(_ygl_day_shift!E22="","",_ygl_day_shift!E22)</f>
-        <v/>
-      </c>
-      <c r="B25" s="14" t="str">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="28">
+        <v>9</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="str">
         <f>IF(_ygl_day_shift!F22="","",_ygl_day_shift!F22)</f>
         <v/>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="D24" s="30"/>
+      <c r="E24" s="31" t="str">
         <f>IF(_ygl_day_shift!G22="","",_ygl_day_shift!G22)</f>
         <v/>
       </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="17" t="str">
-        <f>IF(_ygl_day_shift!E23="","",_ygl_day_shift!E23)</f>
-        <v/>
-      </c>
-      <c r="B26" s="18" t="str">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="34">
+        <v>10</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="str">
         <f>IF(_ygl_day_shift!F23="","",_ygl_day_shift!F23)</f>
         <v/>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="D25" s="36"/>
+      <c r="E25" s="10" t="str">
         <f>IF(_ygl_day_shift!G23="","",_ygl_day_shift!G23)</f>
         <v/>
       </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="str">
-        <f>"日期："&amp;IF(_ygl_day_shift!A24="","",_ygl_day_shift!A24)</f>
-        <v>日期：</v>
-      </c>
-      <c r="B27" s="6" t="str">
-        <f>"班次："&amp;IF(_ygl_day_shift!B24="","",_ygl_day_shift!B24)</f>
-        <v>班次：</v>
-      </c>
-      <c r="C27" s="6" t="str">
-        <f>"交班确认人："&amp;IF(_ygl_day_shift!C24="","",_ygl_day_shift!C24)</f>
-        <v>交班确认人：</v>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f>"接班确认人："&amp;IF(_ygl_day_shift!D24="","",_ygl_day_shift!D24)</f>
-        <v>接班确认人：</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B26" s="8" t="str">
+        <f>IF(_ygl_day_shift!A24="","",_ygl_day_shift!A24)</f>
+        <v/>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>IF(_ygl_day_shift!B24="","",_ygl_day_shift!B24)</f>
+        <v/>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f>IF(_ygl_day_shift!C24="","",_ygl_day_shift!C24)</f>
+        <v/>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f>IF(_ygl_day_shift!D24="","",_ygl_day_shift!D24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="str">
+        <f>IF(_ygl_day_shift!F25="","",_ygl_day_shift!F25)</f>
+        <v/>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31" t="str">
+        <f>IF(_ygl_day_shift!G25="","",_ygl_day_shift!G25)</f>
+        <v/>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="34">
         <v>2</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="36" t="str">
+        <f>IF(_ygl_day_shift!F26="","",_ygl_day_shift!F26)</f>
+        <v/>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="10" t="str">
+        <f>IF(_ygl_day_shift!G26="","",_ygl_day_shift!G26)</f>
+        <v/>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="28">
         <v>3</v>
       </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="13" t="str">
-        <f>IF(_ygl_day_shift!E25="","",_ygl_day_shift!E25)</f>
-        <v/>
-      </c>
-      <c r="B29" s="14" t="str">
-        <f>IF(_ygl_day_shift!F25="","",_ygl_day_shift!F25)</f>
-        <v/>
-      </c>
-      <c r="C29" s="15" t="str">
-        <f>IF(_ygl_day_shift!G25="","",_ygl_day_shift!G25)</f>
-        <v/>
-      </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="17" t="str">
-        <f>IF(_ygl_day_shift!E26="","",_ygl_day_shift!E26)</f>
-        <v/>
-      </c>
-      <c r="B30" s="18" t="str">
-        <f>IF(_ygl_day_shift!F26="","",_ygl_day_shift!F26)</f>
-        <v/>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f>IF(_ygl_day_shift!G26="","",_ygl_day_shift!G26)</f>
-        <v/>
-      </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="13" t="str">
-        <f>IF(_ygl_day_shift!E27="","",_ygl_day_shift!E27)</f>
-        <v/>
-      </c>
-      <c r="B31" s="14" t="str">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="str">
         <f>IF(_ygl_day_shift!F27="","",_ygl_day_shift!F27)</f>
         <v/>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="D30" s="30"/>
+      <c r="E30" s="31" t="str">
         <f>IF(_ygl_day_shift!G27="","",_ygl_day_shift!G27)</f>
         <v/>
       </c>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="17" t="str">
-        <f>IF(_ygl_day_shift!E28="","",_ygl_day_shift!E28)</f>
-        <v/>
-      </c>
-      <c r="B32" s="18" t="str">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="34">
+        <v>4</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36" t="str">
         <f>IF(_ygl_day_shift!F28="","",_ygl_day_shift!F28)</f>
         <v/>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="D31" s="36"/>
+      <c r="E31" s="10" t="str">
         <f>IF(_ygl_day_shift!G28="","",_ygl_day_shift!G28)</f>
         <v/>
       </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="13" t="str">
-        <f>IF(_ygl_day_shift!E29="","",_ygl_day_shift!E29)</f>
-        <v/>
-      </c>
-      <c r="B33" s="14" t="str">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="28">
+        <v>5</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="str">
         <f>IF(_ygl_day_shift!F29="","",_ygl_day_shift!F29)</f>
         <v/>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="D32" s="30"/>
+      <c r="E32" s="31" t="str">
         <f>IF(_ygl_day_shift!G29="","",_ygl_day_shift!G29)</f>
         <v/>
       </c>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="17" t="str">
-        <f>IF(_ygl_day_shift!E30="","",_ygl_day_shift!E30)</f>
-        <v/>
-      </c>
-      <c r="B34" s="18" t="str">
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="34">
+        <v>6</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36" t="str">
         <f>IF(_ygl_day_shift!F30="","",_ygl_day_shift!F30)</f>
         <v/>
       </c>
-      <c r="C34" s="9" t="str">
+      <c r="D33" s="36"/>
+      <c r="E33" s="10" t="str">
         <f>IF(_ygl_day_shift!G30="","",_ygl_day_shift!G30)</f>
         <v/>
       </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="13" t="str">
-        <f>IF(_ygl_day_shift!E31="","",_ygl_day_shift!E31)</f>
-        <v/>
-      </c>
-      <c r="B35" s="14" t="str">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="28">
+        <v>7</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="str">
         <f>IF(_ygl_day_shift!F31="","",_ygl_day_shift!F31)</f>
         <v/>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="D34" s="30"/>
+      <c r="E34" s="31" t="str">
         <f>IF(_ygl_day_shift!G31="","",_ygl_day_shift!G31)</f>
         <v/>
       </c>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="17" t="str">
-        <f>IF(_ygl_day_shift!E32="","",_ygl_day_shift!E32)</f>
-        <v/>
-      </c>
-      <c r="B36" s="18" t="str">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="34">
+        <v>8</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36" t="str">
         <f>IF(_ygl_day_shift!F32="","",_ygl_day_shift!F32)</f>
         <v/>
       </c>
-      <c r="C36" s="9" t="str">
+      <c r="D35" s="36"/>
+      <c r="E35" s="10" t="str">
         <f>IF(_ygl_day_shift!G32="","",_ygl_day_shift!G32)</f>
         <v/>
       </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="13" t="str">
-        <f>IF(_ygl_day_shift!E33="","",_ygl_day_shift!E33)</f>
-        <v/>
-      </c>
-      <c r="B37" s="14" t="str">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="28">
+        <v>9</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="str">
         <f>IF(_ygl_day_shift!F33="","",_ygl_day_shift!F33)</f>
         <v/>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="D36" s="30"/>
+      <c r="E36" s="31" t="str">
         <f>IF(_ygl_day_shift!G33="","",_ygl_day_shift!G33)</f>
         <v/>
       </c>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="17" t="str">
-        <f>IF(_ygl_day_shift!E34="","",_ygl_day_shift!E34)</f>
-        <v/>
-      </c>
-      <c r="B38" s="18" t="str">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34">
+        <v>10</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36" t="str">
         <f>IF(_ygl_day_shift!F34="","",_ygl_day_shift!F34)</f>
         <v/>
       </c>
-      <c r="C38" s="9" t="str">
+      <c r="D37" s="36"/>
+      <c r="E37" s="10" t="str">
         <f>IF(_ygl_day_shift!G34="","",_ygl_day_shift!G34)</f>
         <v/>
       </c>
-      <c r="D38" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="100">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E37:H37"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1869,42 +2172,42 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="38.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.8796296296296" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="27.3833333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.3796296296296" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1923,11 +2226,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>43416.464906169</v>
@@ -1935,82 +2238,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
